--- a/Planification/Planification Initial.xlsx
+++ b/Planification/Planification Initial.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Semaine 1</t>
   </si>
@@ -78,10 +78,13 @@
     <t>Préparation de la présentation</t>
   </si>
   <si>
-    <t>Correction de derniers bug / Finalisation de la documentation</t>
-  </si>
-  <si>
     <t>Analyse de l'application / Création des use cases / Modélisation de la base de données  / Début de la documentation</t>
+  </si>
+  <si>
+    <t>Continuation de la conception de l'application + tests / Continuation de la documentation</t>
+  </si>
+  <si>
+    <t>Correction de derniers bug / Finalisation de l'application / Finalisation de la documentation</t>
   </si>
 </sst>
 </file>
@@ -401,67 +404,67 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -753,7 +756,7 @@
   <dimension ref="B4:XFD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,156 +766,156 @@
   <sheetData>
     <row r="4" spans="2:11 16384:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11 16384:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="2:11 16384:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="16" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="XFD6" s="1" t="s">
+      <c r="K6" s="13"/>
+      <c r="XFD6" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:11 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-      <c r="XFD7" s="2"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="XFD7" s="19"/>
     </row>
     <row r="8" spans="2:11 16384:16384" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="XFD8" s="2"/>
+      <c r="K8" s="17"/>
+      <c r="XFD8" s="19"/>
     </row>
     <row r="9" spans="2:11 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="XFD9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="XFD9" s="19"/>
     </row>
     <row r="10" spans="2:11 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="XFD10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="XFD10" s="19"/>
     </row>
     <row r="11" spans="2:11 16384:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:11 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="B6:C7"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="XFD6:XFD10"/>
     <mergeCell ref="H6:I7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="B6:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
